--- a/Planilha investimentos.xlsx
+++ b/Planilha investimentos.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE76DF3-2D54-4901-965E-B246784CD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45BDB86-1464-40E2-80B9-EF04CA0F0214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5892" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{1704EB38-118F-4CE1-A907-D7445BCF93DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1704EB38-118F-4CE1-A907-D7445BCF93DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="app" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="aporte">Planilha1!$D$18</definedName>
-    <definedName name="patrimonio">Planilha1!$D$21</definedName>
-    <definedName name="qtde_anos">Planilha1!$D$19</definedName>
-    <definedName name="rendimento_carteira">Planilha1!$D$13</definedName>
-    <definedName name="salario">Planilha1!$D$12</definedName>
-    <definedName name="sugestao_investimento">Planilha1!$D$14</definedName>
-    <definedName name="taxa_mensal">Planilha1!$D$20</definedName>
+    <definedName name="aporte">app!$D$18</definedName>
+    <definedName name="patrimonio">app!$D$21</definedName>
+    <definedName name="qtde_anos">app!$D$19</definedName>
+    <definedName name="rendimento_carteira">app!$D$13</definedName>
+    <definedName name="salario">app!$D$12</definedName>
+    <definedName name="sugestao_investimento">app!$D$14</definedName>
+    <definedName name="taxa_mensal">app!$D$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Quanto investir por mês?</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Dividendos Mensais?</t>
   </si>
   <si>
-    <t>INVESTIMENTO MENSAL</t>
-  </si>
-  <si>
     <t>Quanto em 2 anos?</t>
   </si>
   <si>
@@ -76,18 +73,18 @@
     <t>Salário</t>
   </si>
   <si>
-    <t>Sugestão de investimento</t>
-  </si>
-  <si>
-    <t>CONFIGURAÇÕES</t>
-  </si>
-  <si>
     <t>CENÁRIOS</t>
   </si>
   <si>
     <t>Dividendo</t>
   </si>
   <si>
+    <t>Agressivo</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
     <t>VALOR A SER INVESTIDO POR MÊS</t>
   </si>
   <si>
@@ -122,6 +119,24 @@
   </si>
   <si>
     <t>Conservador</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CHAVE</t>
+  </si>
+  <si>
+    <t>Moderado-TIJOLO</t>
+  </si>
+  <si>
+    <t>Sugestão de investimento (30%)</t>
+  </si>
+  <si>
+    <t>CARTEIRA</t>
+  </si>
+  <si>
+    <t>SIMULAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -133,7 +148,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +175,13 @@
       <b/>
       <sz val="20"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,13 +245,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -244,8 +265,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -718,20 +751,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,9 +785,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,83 +830,71 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -887,10 +915,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bom" xfId="3" builtinId="26"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutro" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -907,27 +974,887 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>app!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentual Sugerido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="3"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>app!$B$36:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>PAPEL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TIJOLO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HIBRIDOS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FOFs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DESENVOLVIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HOTELARIAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>app!$C$36:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79FE-4B99-9A57-488D82F43776}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2788920</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5212A09C-654C-EB18-A088-C375C8B1DC5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="8" name="Imagem 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A150EA76-24C1-452F-85CB-F4B338C6B207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A7DD6A-93F7-E258-77CA-41F3CD7414AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,21 +1862,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect b="9606"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="502920" y="106680"/>
-          <a:ext cx="6697980" cy="1539240"/>
+          <a:off x="617220" y="0"/>
+          <a:ext cx="6728460" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1258,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9499F2A-1A6D-486A-BA8A-D533698923F6}">
-  <dimension ref="A10:G42"/>
+  <dimension ref="A9:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,112 +2197,113 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="39.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:4" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:4" ht="1.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:4" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="22">
-        <v>5000</v>
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21">
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="23">
+      <c r="B13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="43">
+      <c r="B14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="42">
         <f>D12*30%</f>
-        <v>1500</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="11">
         <v>5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="12">
-        <v>10</v>
-      </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="13">
+      <c r="C20" s="34"/>
+      <c r="D20" s="12">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="14">
+      <c r="C21" s="36"/>
+      <c r="D21" s="13">
         <f>FV(taxa_mensal,qtde_anos*12,aporte*-1)</f>
-        <v>121642.1062650861</v>
+        <v>16755.382799697527</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="15">
+      <c r="C22" s="38"/>
+      <c r="D22" s="14">
         <f>patrimonio*rendimento_carteira</f>
-        <v>729.85263759051657</v>
+        <v>100.53229679818516</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -1382,190 +2311,196 @@
       <c r="A25" s="3">
         <v>2</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="16">
+      <c r="B25" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15">
         <f>FV($D$20,$A25*12,$D$18*-1)</f>
-        <v>13613.813648822608</v>
-      </c>
-      <c r="D25" s="17">
+        <v>5445.5254595290435</v>
+      </c>
+      <c r="D25" s="16">
         <f>C25*rendimento_carteira</f>
-        <v>81.682881892935654</v>
+        <v>32.673152757174265</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="B26" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="17">
         <f>FV($D$20,$A26*12,$D$18*-1)</f>
-        <v>41888.456999243819</v>
-      </c>
-      <c r="D26" s="19">
+        <v>16755.382799697527</v>
+      </c>
+      <c r="D26" s="18">
         <f>C26*rendimento_carteira</f>
-        <v>251.33074199546292</v>
+        <v>100.53229679818516</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>10</v>
       </c>
-      <c r="B27" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="17">
         <f>FV($D$20,$A27*12,$D$18*-1)</f>
-        <v>121642.1062650861</v>
-      </c>
-      <c r="D27" s="19">
+        <v>48656.842506034438</v>
+      </c>
+      <c r="D27" s="18">
         <f>C27*rendimento_carteira</f>
-        <v>729.85263759051657</v>
+        <v>291.94105503620665</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>20</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B28" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="17">
         <f>FV($D$20,$A28*12,$D$18*-1)</f>
-        <v>562599.20004854025</v>
-      </c>
-      <c r="D28" s="19">
+        <v>225039.68001941612</v>
+      </c>
+      <c r="D28" s="18">
         <f>C28*rendimento_carteira</f>
-        <v>3375.5952002912418</v>
+        <v>1350.2380801164968</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>30</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="20">
+      <c r="B29" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="19">
         <f>FV($D$20,$A29*12,$D$18*-1)</f>
-        <v>2161084.8275023573</v>
-      </c>
-      <c r="D29" s="21">
+        <v>864433.93100094295</v>
+      </c>
+      <c r="D29" s="20">
         <f>C29*rendimento_carteira</f>
-        <v>12966.508965014144</v>
+        <v>5186.6035860056581</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="66"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="47">
+        <f>aporte</f>
+        <v>200</v>
+      </c>
+      <c r="D33" s="45"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="48"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="52">
-        <f>aporte</f>
-        <v>500</v>
-      </c>
-      <c r="D33" s="50"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="54" t="s">
+      <c r="C35" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="D35" s="49" t="s">
         <v>20</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="53">
-        <v>0.3</v>
+        <v>22</v>
+      </c>
+      <c r="C36" s="48">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B36,Planilha2!$A$1:$D$20,4,FALSE)</f>
+        <v>0.32</v>
       </c>
       <c r="D36" s="2">
         <f>C36*$C$33</f>
-        <v>150</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="53">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="C37" s="48">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha2!$A$1:$D$20,4,FALSE)</f>
+        <v>0.35</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" ref="D37:D41" si="0">C37*$C$33</f>
-        <v>250</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="53">
-        <v>0.1</v>
+        <v>23</v>
+      </c>
+      <c r="C38" s="48">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha2!$A$1:$D$20,4,FALSE)</f>
+        <v>0.08</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="53">
-        <v>0.1</v>
+        <v>24</v>
+      </c>
+      <c r="C39" s="48">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha2!$A$1:$D$20,4,FALSE)</f>
+        <v>0.05</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="53">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C40" s="48">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha2!$A$1:$D$20,4,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="53">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C41" s="48">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha2!$A$1:$D$20,4,FALSE)</f>
+        <v>0.1</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58">
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53">
         <f>SUM(D36:D41)</f>
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1595,18 +2530,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A62ABFE-35F4-4622-B66C-F3CF1E5BC574}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="56"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <f>patrimonio</f>
-        <v>121642.1062650861</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3&amp;"-"&amp;C3</f>
+        <v>Conservador-PAPEL</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
+        <v>Conservador-TIJOLO</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="60">
+        <f>VLOOKUP(G4,$A:$D,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-HIBRIDOS</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-FOFs</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-HOTELARIAS</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-PAPEL</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="58">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-TIJOLO</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="58">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-HIBRIDOS</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="58">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-FOFs</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>Moderado-HOTELARIAS</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-PAPEL</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-TIJOLO</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-HIBRIDOS</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-FOFs</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Agressivo-HOTELARIAS</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="56">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
